--- a/metronic.xlsx
+++ b/metronic.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W93"/>
+  <dimension ref="A1:W132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -557,21 +557,21 @@
         </is>
       </c>
       <c r="C3">
-        <v>3622</v>
+        <v>3579</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>08/03/2022</t>
+          <t>01/03/2022</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20603066988</t>
+          <t>10296650434</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>RETINA VISION E.I.R.L</t>
+          <t>CORRALES ABARCA ANALIA NOELIA</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -590,19 +590,19 @@
         </is>
       </c>
       <c r="K3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L3">
-        <v>314.8464</v>
+        <v>446.0324</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>NORTE GRANDE B</t>
+          <t>SUR GRANDE</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>LUDEÑA MESA YURI ROBERTO</t>
+          <t>ROBERTO JIMENEZ OSORIO</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -628,21 +628,21 @@
         </is>
       </c>
       <c r="C4">
-        <v>3579</v>
+        <v>3632</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>01/03/2022</t>
+          <t>09/03/2022</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10296650434</t>
+          <t>10178749841</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>CORRALES ABARCA ANALIA NOELIA</t>
+          <t>RUIZ VIGO JORGE EDUARDO</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -661,19 +661,19 @@
         </is>
       </c>
       <c r="K4">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>446.0324</v>
+        <v>25.4236</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>SUR GRANDE</t>
+          <t>NORTE MEDIO</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>ROBERTO JIMENEZ OSORIO</t>
+          <t>CARLOS CUADRA PINILLOS</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -699,21 +699,21 @@
         </is>
       </c>
       <c r="C5">
-        <v>3588</v>
+        <v>3604</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>02/03/2022</t>
+          <t>04/03/2022</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>20482432311</t>
+          <t>20525179401</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>OFTNORT B &amp; S E.I.R.L.</t>
+          <t>SOCIAL MEDICAL S.A.C.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="K5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L5">
-        <v>127.118</v>
+        <v>491.949</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>NORTE MEDIO</t>
+          <t>LIMA CALLAO</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>CARLOS CUADRA PINILLOS</t>
+          <t>ERIKA JESUS MORENO MEZA</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -770,21 +770,21 @@
         </is>
       </c>
       <c r="C6">
-        <v>3587</v>
+        <v>3584</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>02/03/2022</t>
+          <t>01/03/2022</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>20559876373</t>
+          <t>20517984656</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>MEDICINA GLOBAL TRUJILLO S.A.C</t>
+          <t>SOCIEDAD MEDICA OFTALMYCA SRL</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -806,16 +806,16 @@
         <v>12</v>
       </c>
       <c r="L6">
-        <v>314.8464</v>
+        <v>393.5592</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>NORTE MEDIO</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>CARLOS CUADRA PINILLOS</t>
+          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -841,21 +841,21 @@
         </is>
       </c>
       <c r="C7">
-        <v>3618</v>
+        <v>3587</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>07/03/2022</t>
+          <t>02/03/2022</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>20600361385</t>
+          <t>20559876373</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>OPERAVISION S.A.C.</t>
+          <t>MEDICINA GLOBAL TRUJILLO S.A.C</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -874,19 +874,19 @@
         </is>
       </c>
       <c r="K7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L7">
-        <v>419.7952</v>
+        <v>314.8464</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>SUR ORIENTE</t>
+          <t>NORTE MEDIO</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>PATRICIA LAZARTE</t>
+          <t>CARLOS CUADRA PINILLOS</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -912,21 +912,21 @@
         </is>
       </c>
       <c r="C8">
-        <v>3581</v>
+        <v>3633</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>01/03/2022</t>
+          <t>09/03/2022</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>20548093873</t>
+          <t>20608577069</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>HIC OFTALMICA S.A.C.</t>
+          <t>VISUALIZA JK E.I.R.L.</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -945,10 +945,10 @@
         </is>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>152.542</v>
+        <v>25.4236</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -983,21 +983,21 @@
         </is>
       </c>
       <c r="C9">
-        <v>3580</v>
+        <v>3639</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>01/03/2022</t>
+          <t>10/03/2022</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>20601978084</t>
+          <t>20517530540</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>DAFER VISION E.I.R.L.</t>
+          <t>MEDICVISION SAC</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1016,19 +1016,19 @@
         </is>
       </c>
       <c r="K9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L9">
-        <v>524.744</v>
+        <v>700.4736</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>NORTE GRANDE B</t>
+          <t>LIMA SUR</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>LUDEÑA MESA YURI ROBERTO</t>
+          <t>ROSSANA URBINA ROJAS</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1054,21 +1054,21 @@
         </is>
       </c>
       <c r="C10">
-        <v>3584</v>
+        <v>3588</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>01/03/2022</t>
+          <t>02/03/2022</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>20517984656</t>
+          <t>20482432311</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>SOCIEDAD MEDICA OFTALMYCA SRL</t>
+          <t>OFTNORT B &amp; S E.I.R.L.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1087,19 +1087,19 @@
         </is>
       </c>
       <c r="K10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L10">
-        <v>393.5592</v>
+        <v>127.118</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>NORTE MEDIO</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
+          <t>CARLOS CUADRA PINILLOS</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1125,21 +1125,21 @@
         </is>
       </c>
       <c r="C11">
-        <v>3604</v>
+        <v>3622</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>04/03/2022</t>
+          <t>08/03/2022</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>20525179401</t>
+          <t>20603066988</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>SOCIAL MEDICAL S.A.C.</t>
+          <t>RETINA VISION E.I.R.L</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1158,19 +1158,19 @@
         </is>
       </c>
       <c r="K11">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L11">
-        <v>491.949</v>
+        <v>314.8464</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>LIMA CALLAO</t>
+          <t>NORTE GRANDE B</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>ERIKA JESUS MORENO MEZA</t>
+          <t>LUDEÑA MESA YURI ROBERTO</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1196,21 +1196,21 @@
         </is>
       </c>
       <c r="C12">
-        <v>3619</v>
+        <v>3580</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>07/03/2022</t>
+          <t>01/03/2022</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10240019731</t>
+          <t>20601978084</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>FUENTES VEGA JOSE ANTONIO</t>
+          <t>DAFER VISION E.I.R.L.</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1220,38 +1220,38 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>ASTEROSS EN OCUVIAL SOLUCIÓN OFTÁLMICA X 0,5ML X 30 VIALES</t>
+          <t>ANESTEARS 0,5% SOL OFT EST x 15ml</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>ASTEROSS EN OCUVIAL SOLUCIÓN OFTÁLMICA X 0,5ML X 3</t>
+          <t>ANESTEARS 0,5% SOL OFT EST x 15ml</t>
         </is>
       </c>
       <c r="K12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L12">
-        <v>338.983</v>
+        <v>524.744</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>SUR ORIENTE</t>
+          <t>NORTE GRANDE B</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>PATRICIA LAZARTE</t>
+          <t>LUDEÑA MESA YURI ROBERTO</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROJO</t>
         </is>
       </c>
     </row>
@@ -1267,21 +1267,21 @@
         </is>
       </c>
       <c r="C13">
-        <v>3595</v>
+        <v>3581</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>03/03/2022</t>
+          <t>01/03/2022</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10103945645</t>
+          <t>20548093873</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>HERRERA LOPEZ NORMA FRANCISCA</t>
+          <t>HIC OFTALMICA S.A.C.</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1291,38 +1291,38 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>BIOTEARS SOL OFT EST x 15ml</t>
+          <t>ANESTEARS 0,5% SOL OFT EST x 15ml</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>BIOTEARS SOL OFT EST x 15ml</t>
+          <t>ANESTEARS 0,5% SOL OFT EST x 15ml</t>
         </is>
       </c>
       <c r="K13">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L13">
-        <v>884.745</v>
+        <v>152.542</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>LIMA NORTE</t>
+          <t>NORTE MEDIO</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>MAX ZAPATA ZANINI</t>
+          <t>CARLOS CUADRA PINILLOS</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROJO</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>3608</v>
+        <v>3618</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1347,12 +1347,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>15253696025</t>
+          <t>20600361385</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>GUTIERREZ UMPIRE BRUNO EMILIO</t>
+          <t>OPERAVISION S.A.C.</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1362,19 +1362,19 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>BIOTEARS SOL OFT EST x 15ml</t>
+          <t>ANESTEARS 0,5% SOL OFT EST x 15ml</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>BIOTEARS SOL OFT EST x 15ml</t>
+          <t>ANESTEARS 0,5% SOL OFT EST x 15ml</t>
         </is>
       </c>
       <c r="K14">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L14">
-        <v>589.83</v>
+        <v>419.7952</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1388,12 +1388,12 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROJO</t>
         </is>
       </c>
     </row>
@@ -1433,19 +1433,19 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>CLACIER EN OCUVIAL 0.05% SOL OFT X 30 VIALES DE 0.4ML</t>
+          <t>ASTEROSS EN OCUVIAL SOLUCIÓN OFTÁLMICA X 0,5ML X 30 VIALES</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>CLACIER EN OCUVIAL 0.05% SOL OFT X 30 VIALES DE 0.</t>
+          <t>ASTEROSS EN OCUVIAL SOLUCIÓN OFTÁLMICA X 0,5ML X 3</t>
         </is>
       </c>
       <c r="K15">
         <v>10</v>
       </c>
       <c r="L15">
-        <v>661.016</v>
+        <v>338.983</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1480,52 +1480,52 @@
         </is>
       </c>
       <c r="C16">
-        <v>3598</v>
+        <v>78</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>03/03/2022</t>
+          <t>11/03/2022</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10466431171</t>
+          <t>20520854208</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>MAITA TRUJILLO JOSEPH JOHNNY</t>
+          <t>FUNDACION PARA EL TRATAMIENTO DE GLAUCOMA Y CATARA</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>CLORINCORT - P  UNG OFT EST x 3.5g</t>
+          <t>ATROPINA 1% SOL OFT EST x 5ml</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>CLORINCORT - P  UNG OFT EST x 3.5g</t>
+          <t>ATROPINA 1% SOL OFT EST x 5ml</t>
         </is>
       </c>
       <c r="K16">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>530.5075000000001</v>
+        <v>-47.1694</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>LIMA CALLAO</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>MARIA DEL CARMEN CHERRE ESPEJO</t>
+          <t>OSCAR NICOLA SHIMAZAKI ZAGAL</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>ROJO</t>
+          <t>COMUN</t>
         </is>
       </c>
     </row>
@@ -1551,21 +1551,21 @@
         </is>
       </c>
       <c r="C17">
-        <v>3601</v>
+        <v>3608</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>04/03/2022</t>
+          <t>07/03/2022</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>20563762838</t>
+          <t>15253696025</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>CENTRO MEDICO MENDOZA E.I.R.L.</t>
+          <t>GUTIERREZ UMPIRE BRUNO EMILIO</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1575,38 +1575,38 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>CLORINCORT - P  UNG OFT EST x 3.5g</t>
+          <t>BIOTEARS SOL OFT EST x 15ml</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>CLORINCORT - P  UNG OFT EST x 3.5g</t>
+          <t>BIOTEARS SOL OFT EST x 15ml</t>
         </is>
       </c>
       <c r="K17">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L17">
-        <v>524.7875</v>
+        <v>589.83</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>SUR ORIENTE</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
+          <t>PATRICIA LAZARTE</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>ROJO</t>
+          <t>AZUL</t>
         </is>
       </c>
     </row>
@@ -1622,21 +1622,21 @@
         </is>
       </c>
       <c r="C18">
-        <v>3583</v>
+        <v>3595</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>01/03/2022</t>
+          <t>03/03/2022</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>20601969051</t>
+          <t>10103945645</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>VISION MONTECRISTO S.R.L.</t>
+          <t>HERRERA LOPEZ NORMA FRANCISCA</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1646,38 +1646,38 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>CLORINCORT - P  UNG OFT EST x 3.5g</t>
+          <t>BIOTEARS SOL OFT EST x 15ml</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>CLORINCORT - P  UNG OFT EST x 3.5g</t>
+          <t>BIOTEARS SOL OFT EST x 15ml</t>
         </is>
       </c>
       <c r="K18">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="L18">
-        <v>157.6183</v>
+        <v>884.745</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>LIMA ESTE</t>
+          <t>LIMA NORTE</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
+          <t>MAX ZAPATA ZANINI</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>ROJO</t>
+          <t>AZUL</t>
         </is>
       </c>
     </row>
@@ -1717,19 +1717,19 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>COSOMIDOL SOL OFT ESTl x 5ml</t>
+          <t>CLACIER EN OCUVIAL 0.05% SOL OFT X 30 VIALES DE 0.4ML</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>COSOMIDOL SOL OFT ESTl x 5ml</t>
+          <t>CLACIER EN OCUVIAL 0.05% SOL OFT X 30 VIALES DE 0.</t>
         </is>
       </c>
       <c r="K19">
         <v>10</v>
       </c>
       <c r="L19">
-        <v>407.881</v>
+        <v>661.016</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -1743,12 +1743,12 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>ROJO</t>
+          <t>AZUL</t>
         </is>
       </c>
     </row>
@@ -1764,21 +1764,21 @@
         </is>
       </c>
       <c r="C20">
-        <v>3628</v>
+        <v>3643</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>09/03/2022</t>
+          <t>11/03/2022</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10421287347</t>
+          <t>10082949424</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>MISAICO QUISPE HERNAN</t>
+          <t>CHAVEZ ALIAGA JOSE ALBERTO</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1788,28 +1788,28 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>DICLOPTIC 0,1% SOL OFT EST x 5 ml</t>
+          <t>CLORINCORT - P  UNG OFT EST x 3.5g</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>DICLOPTIC 0,1% SOL OFT EST x 5 ml</t>
+          <t>CLORINCORT - P  UNG OFT EST x 3.5g</t>
         </is>
       </c>
       <c r="K20">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="L20">
-        <v>95.5932</v>
+        <v>424.406</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>NORTE GRANDE B</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
+          <t>LUDEÑA MESA YURI ROBERTO</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>COMUN</t>
+          <t>ROJO</t>
         </is>
       </c>
     </row>
@@ -1835,21 +1835,21 @@
         </is>
       </c>
       <c r="C21">
-        <v>3605</v>
+        <v>3583</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>04/03/2022</t>
+          <t>01/03/2022</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10180971039</t>
+          <t>20601969051</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>FERNANDEZ JAEGER CARLOS DANIEL</t>
+          <t>VISION MONTECRISTO S.R.L.</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1859,38 +1859,38 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>FENILEFRINA 10% EN OCUVIAL SOL OFT</t>
+          <t>CLORINCORT - P  UNG OFT EST x 3.5g</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>FENILEFRINA 10% EN OCUVIAL SOL OFT</t>
+          <t>CLORINCORT - P  UNG OFT EST x 3.5g</t>
         </is>
       </c>
       <c r="K21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L21">
-        <v>186.1014</v>
+        <v>157.6183</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>NORTE MEDIO</t>
+          <t>LIMA ESTE</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>CARLOS CUADRA PINILLOS</t>
+          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>COMUN</t>
+          <t>ROJO</t>
         </is>
       </c>
     </row>
@@ -1906,21 +1906,21 @@
         </is>
       </c>
       <c r="C22">
-        <v>3612</v>
+        <v>3640</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>07/03/2022</t>
+          <t>10/03/2022</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>20608841351</t>
+          <t>10180750512</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>CONSULTORIO OPTICA BELLAVISTA E.I.R.L.</t>
+          <t>CRUZALEGUI MENDEZ LUIS JOSE</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1930,28 +1930,28 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>FENILEFRINA 10% SOL OFT EST x 5 ml</t>
+          <t>CLORINCORT - P  UNG OFT EST x 3.5g</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>FENILEFRINA 10% SOL OFT EST x 5 ml</t>
+          <t>CLORINCORT - P  UNG OFT EST x 3.5g</t>
         </is>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L22">
-        <v>67.2711</v>
+        <v>337.7535</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>LIMA CALLAO</t>
+          <t>LIMA ESTE</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>ERIKA JESUS MORENO MEZA</t>
+          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>COMUN</t>
+          <t>ROJO</t>
         </is>
       </c>
     </row>
@@ -1977,21 +1977,21 @@
         </is>
       </c>
       <c r="C23">
-        <v>3622</v>
+        <v>3598</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>08/03/2022</t>
+          <t>03/03/2022</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>20603066988</t>
+          <t>10466431171</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>RETINA VISION E.I.R.L</t>
+          <t>MAITA TRUJILLO JOSEPH JOHNNY</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2001,28 +2001,28 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>FENILEFRINA 10% SOL OFT EST x 5 ml</t>
+          <t>CLORINCORT - P  UNG OFT EST x 3.5g</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>FENILEFRINA 10% SOL OFT EST x 5 ml</t>
+          <t>CLORINCORT - P  UNG OFT EST x 3.5g</t>
         </is>
       </c>
       <c r="K23">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L23">
-        <v>269.0844</v>
+        <v>530.5075000000001</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>NORTE GRANDE B</t>
+          <t>LIMA CALLAO</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>LUDEÑA MESA YURI ROBERTO</t>
+          <t>MARIA DEL CARMEN CHERRE ESPEJO</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>COMUN</t>
+          <t>ROJO</t>
         </is>
       </c>
     </row>
@@ -2048,7 +2048,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>3602</v>
+        <v>3601</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2057,12 +2057,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>20559876373</t>
+          <t>20563762838</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>MEDICINA GLOBAL TRUJILLO S.A.C</t>
+          <t>CENTRO MEDICO MENDOZA E.I.R.L.</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2072,28 +2072,28 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>FENILEFRINA 10% SOL OFT EST x 5 ml</t>
+          <t>CLORINCORT - P  UNG OFT EST x 3.5g</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>FENILEFRINA 10% SOL OFT EST x 5 ml</t>
+          <t>CLORINCORT - P  UNG OFT EST x 3.5g</t>
         </is>
       </c>
       <c r="K24">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L24">
-        <v>569.4912000000001</v>
+        <v>524.7875</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>NORTE MEDIO</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>CARLOS CUADRA PINILLOS</t>
+          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -2103,7 +2103,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>COMUN</t>
+          <t>ROJO</t>
         </is>
       </c>
     </row>
@@ -2119,43 +2119,43 @@
         </is>
       </c>
       <c r="C25">
-        <v>3593</v>
+        <v>2901</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>02/03/2022</t>
+          <t>10/03/2022</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>20559876373</t>
+          <t>47482744</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>MEDICINA GLOBAL TRUJILLO S.A.C</t>
+          <t>ESTACIO SAUCEDO ROSA NOEMI</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>BV</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>FENILEFRINA 10% SOL OFT EST x 5 ml</t>
+          <t>CLORINCORT - P  UNG OFT EST x 3.5g</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>FENILEFRINA 10% SOL OFT EST x 5 ml</t>
+          <t>CLORINCORT - P  UNG OFT EST x 3.5g</t>
         </is>
       </c>
       <c r="K25">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="L25">
-        <v>142.3728</v>
+        <v>612.711</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>COMUN</t>
+          <t>ROJO</t>
         </is>
       </c>
     </row>
@@ -2190,21 +2190,21 @@
         </is>
       </c>
       <c r="C26">
-        <v>3589</v>
+        <v>3619</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>02/03/2022</t>
+          <t>07/03/2022</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>20482432311</t>
+          <t>10240019731</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>OFTNORT B &amp; S E.I.R.L.</t>
+          <t>FUENTES VEGA JOSE ANTONIO</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2214,38 +2214,38 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>FENILEFRINA 10% SOL OFT EST x 5 ml</t>
+          <t>COSOMIDOL SOL OFT ESTl x 5ml</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>FENILEFRINA 10% SOL OFT EST x 5 ml</t>
+          <t>COSOMIDOL SOL OFT ESTl x 5ml</t>
         </is>
       </c>
       <c r="K26">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="L26">
-        <v>569.4912000000001</v>
+        <v>407.881</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>NORTE MEDIO</t>
+          <t>SUR ORIENTE</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>CARLOS CUADRA PINILLOS</t>
+          <t>PATRICIA LAZARTE</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>COMUN</t>
+          <t>ROJO</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>3628</v>
+        <v>3631</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2270,12 +2270,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10421287347</t>
+          <t>20603536593</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>MISAICO QUISPE HERNAN</t>
+          <t>CENTRO OFTALMOLÓGICO NOBA VISIÓN E.I.R.L.</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2285,38 +2285,38 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>FLORIL OFFICE 0,05% SOL OFT EST X 10ML</t>
+          <t>COSOMIDOL SOL OFT ESTl x 5ml</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>FLORIL OFFICE 0,05% SOL OFT EST X 10ML</t>
+          <t>COSOMIDOL SOL OFT ESTl x 5ml</t>
         </is>
       </c>
       <c r="K27">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L27">
-        <v>135.592</v>
+        <v>427.1175</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>NORTE GRANDE A</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
+          <t>GUSTAVO MASIAS SIANCAS</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>COMUN</t>
+          <t>ROJO</t>
         </is>
       </c>
     </row>
@@ -2356,19 +2356,19 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>GENTAMICINA 0,3% SOL OFT EST x 5ml</t>
+          <t>DICLOPTIC 0,1% SOL OFT EST x 5 ml</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>GENTAMICINA 0,3% SOL OFT EST x 5ml</t>
+          <t>DICLOPTIC 0,1% SOL OFT EST x 5 ml</t>
         </is>
       </c>
       <c r="K28">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="L28">
-        <v>70.676</v>
+        <v>95.5932</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -2403,21 +2403,21 @@
         </is>
       </c>
       <c r="C29">
-        <v>3600</v>
+        <v>3635</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>03/03/2022</t>
+          <t>09/03/2022</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>20601583501</t>
+          <t>20602550363</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>RM CA E.I.R.L.</t>
+          <t>ESPECIALIDADES OFTALMOLOGICAS DR SULCA S.R.L.</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2427,38 +2427,38 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>HOPRX 0,005% EN OCUVIAL SOL.OFT.EST x 0.3ml</t>
+          <t>DICLOPTIC 0,1% SOL OFT EST x 5 ml</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>HOPRX 0,005% EN OCUVIAL SOL.OFT.EST x 0.3ml</t>
+          <t>DICLOPTIC 0,1% SOL OFT EST x 5 ml</t>
         </is>
       </c>
       <c r="K29">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="L29">
-        <v>508.474</v>
+        <v>597.4575</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>LIMA SUR</t>
+          <t>NORTE GRANDE A</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>ROSSANA URBINA ROJAS</t>
+          <t>GUSTAVO MASIAS SIANCAS</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>ROJO</t>
+          <t>COMUN</t>
         </is>
       </c>
     </row>
@@ -2474,21 +2474,21 @@
         </is>
       </c>
       <c r="C30">
-        <v>3597</v>
+        <v>3605</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>03/03/2022</t>
+          <t>04/03/2022</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>20603611421</t>
+          <t>10180971039</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>MIRAOPTIC OFTALMOLOGOS SAC</t>
+          <t>FERNANDEZ JAEGER CARLOS DANIEL</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2498,28 +2498,28 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>HOPRX 0,005% EN OCUVIAL SOL.OFT.EST x 0.3ml</t>
+          <t>FENILEFRINA 10% EN OCUVIAL SOL OFT</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>HOPRX 0,005% EN OCUVIAL SOL.OFT.EST x 0.3ml</t>
+          <t>FENILEFRINA 10% EN OCUVIAL SOL OFT</t>
         </is>
       </c>
       <c r="K30">
         <v>6</v>
       </c>
       <c r="L30">
-        <v>305.0844</v>
+        <v>186.1014</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>LIMA ESTE</t>
+          <t>NORTE MEDIO</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
+          <t>CARLOS CUADRA PINILLOS</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>ROJO</t>
+          <t>COMUN</t>
         </is>
       </c>
     </row>
@@ -2545,21 +2545,21 @@
         </is>
       </c>
       <c r="C31">
-        <v>3628</v>
+        <v>3612</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>09/03/2022</t>
+          <t>07/03/2022</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10421287347</t>
+          <t>20608841351</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>MISAICO QUISPE HERNAN</t>
+          <t>CONSULTORIO OPTICA BELLAVISTA E.I.R.L.</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2569,38 +2569,38 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
+          <t>FENILEFRINA 10% SOL OFT EST x 5 ml</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
+          <t>FENILEFRINA 10% SOL OFT EST x 5 ml</t>
         </is>
       </c>
       <c r="K31">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>389.83</v>
+        <v>67.2711</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>LIMA CALLAO</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
+          <t>ERIKA JESUS MORENO MEZA</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>COMUN</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
         </is>
       </c>
       <c r="C32">
-        <v>3586</v>
+        <v>3589</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2625,12 +2625,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>20604204381</t>
+          <t>20482432311</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>CENTRO DE ESPECIALIDADES MEDICAS DEL NORTE NEOSALU</t>
+          <t>OFTNORT B &amp; S E.I.R.L.</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2640,38 +2640,38 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
+          <t>FENILEFRINA 10% SOL OFT EST x 5 ml</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
+          <t>FENILEFRINA 10% SOL OFT EST x 5 ml</t>
         </is>
       </c>
       <c r="K32">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="L32">
-        <v>1559.32</v>
+        <v>569.4912000000001</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>NORTE GRANDE B</t>
+          <t>NORTE MEDIO</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>LUDEÑA MESA YURI ROBERTO</t>
+          <t>CARLOS CUADRA PINILLOS</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>COMUN</t>
         </is>
       </c>
     </row>
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="C33">
-        <v>3626</v>
+        <v>3622</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2696,12 +2696,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>15253696025</t>
+          <t>20603066988</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>GUTIERREZ UMPIRE BRUNO EMILIO</t>
+          <t>RETINA VISION E.I.R.L</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2711,38 +2711,38 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
+          <t>FENILEFRINA 10% SOL OFT EST x 5 ml</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
+          <t>FENILEFRINA 10% SOL OFT EST x 5 ml</t>
         </is>
       </c>
       <c r="K33">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L33">
-        <v>428.813</v>
+        <v>269.0844</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>SUR ORIENTE</t>
+          <t>NORTE GRANDE B</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>PATRICIA LAZARTE</t>
+          <t>LUDEÑA MESA YURI ROBERTO</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>COMUN</t>
         </is>
       </c>
     </row>
@@ -2758,21 +2758,21 @@
         </is>
       </c>
       <c r="C34">
-        <v>3613</v>
+        <v>3593</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>07/03/2022</t>
+          <t>02/03/2022</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>20600860276</t>
+          <t>20559876373</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>MEDI VISTA E.I.R.L.</t>
+          <t>MEDICINA GLOBAL TRUJILLO S.A.C</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2782,38 +2782,38 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
+          <t>FENILEFRINA 10% SOL OFT EST x 5 ml</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
+          <t>FENILEFRINA 10% SOL OFT EST x 5 ml</t>
         </is>
       </c>
       <c r="K34">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="L34">
-        <v>584.745</v>
+        <v>142.3728</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>LIMA CALLAO</t>
+          <t>NORTE MEDIO</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>MARIA DEL CARMEN CHERRE ESPEJO</t>
+          <t>CARLOS CUADRA PINILLOS</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>COMUN</t>
         </is>
       </c>
     </row>
@@ -2829,21 +2829,21 @@
         </is>
       </c>
       <c r="C35">
-        <v>3592</v>
+        <v>3602</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>02/03/2022</t>
+          <t>04/03/2022</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>20608316974</t>
+          <t>20559876373</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>CASARO VISION EMPRESA INDIVIDUAL DE RESPONSABILIDAD LIMITADA</t>
+          <t>MEDICINA GLOBAL TRUJILLO S.A.C</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2853,38 +2853,38 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
+          <t>FENILEFRINA 10% SOL OFT EST x 5 ml</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
+          <t>FENILEFRINA 10% SOL OFT EST x 5 ml</t>
         </is>
       </c>
       <c r="K35">
         <v>24</v>
       </c>
       <c r="L35">
-        <v>467.796</v>
+        <v>569.4912000000001</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>LIMA CALLAO</t>
+          <t>NORTE MEDIO</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>MARIA DEL CARMEN CHERRE ESPEJO</t>
+          <t>CARLOS CUADRA PINILLOS</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>COMUN</t>
         </is>
       </c>
     </row>
@@ -2900,21 +2900,21 @@
         </is>
       </c>
       <c r="C36">
-        <v>3619</v>
+        <v>3628</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>07/03/2022</t>
+          <t>09/03/2022</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10240019731</t>
+          <t>10421287347</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>FUENTES VEGA JOSE ANTONIO</t>
+          <t>MISAICO QUISPE HERNAN</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2924,38 +2924,38 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
+          <t>FLORIL OFFICE 0,05% SOL OFT EST X 10ML</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
+          <t>FLORIL OFFICE 0,05% SOL OFT EST X 10ML</t>
         </is>
       </c>
       <c r="K36">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L36">
-        <v>175.423</v>
+        <v>135.592</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>SUR ORIENTE</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>PATRICIA LAZARTE</t>
+          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>COMUN</t>
         </is>
       </c>
     </row>
@@ -2971,21 +2971,21 @@
         </is>
       </c>
       <c r="C37">
-        <v>3598</v>
+        <v>3628</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>03/03/2022</t>
+          <t>09/03/2022</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10466431171</t>
+          <t>10421287347</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>MAITA TRUJILLO JOSEPH JOHNNY</t>
+          <t>MISAICO QUISPE HERNAN</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2995,38 +2995,38 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
+          <t>GENTAMICINA 0,3% SOL OFT EST x 5ml</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
+          <t>GENTAMICINA 0,3% SOL OFT EST x 5ml</t>
         </is>
       </c>
       <c r="K37">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L37">
-        <v>1779.66</v>
+        <v>70.676</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>LIMA CALLAO</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>MARIA DEL CARMEN CHERRE ESPEJO</t>
+          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>COMUN</t>
         </is>
       </c>
     </row>
@@ -3042,21 +3042,21 @@
         </is>
       </c>
       <c r="C38">
-        <v>3591</v>
+        <v>3637</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>02/03/2022</t>
+          <t>10/03/2022</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>20601583501</t>
+          <t>10038858667</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>RM CA E.I.R.L.</t>
+          <t>DEL PIELAGO PRIETO LUIS GUILLERMO</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -3066,38 +3066,38 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
+          <t>GENTAMICINA 0,3% UNG OFT EST x 3.5g</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
+          <t>GENTAMICINA 0,3% UNG OFT EST x 3.5g</t>
         </is>
       </c>
       <c r="K38">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L38">
-        <v>466.1</v>
+        <v>118.644</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>LIMA SUR</t>
+          <t>LIMA CALLAO</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>ROSSANA URBINA ROJAS</t>
+          <t>MARIA DEL CARMEN CHERRE ESPEJO</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>N</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>COMUN</t>
         </is>
       </c>
     </row>
@@ -3113,21 +3113,21 @@
         </is>
       </c>
       <c r="C39">
-        <v>3585</v>
+        <v>3643</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>02/03/2022</t>
+          <t>11/03/2022</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>20605592989</t>
+          <t>10082949424</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>OFTAVISION SOCIEDAD ANONIMA CERRADA</t>
+          <t>CHAVEZ ALIAGA JOSE ALBERTO</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3137,38 +3137,38 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
+          <t>GLAMAX EN OCUVIAL SOLUCIÓN OFTÁLMICA ESTÉRIL X 0,3ML X 30 VIALES</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
+          <t>GLAMAX EN OCUVIAL SOL OFT EST x 0.3ml</t>
         </is>
       </c>
       <c r="K39">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="L39">
-        <v>292.3725</v>
+        <v>1898.305</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>LIMA NORTE</t>
+          <t>NORTE GRANDE B</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>ISABEL SEMINARIO GARCIA</t>
+          <t>LUDEÑA MESA YURI ROBERTO</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROJO</t>
         </is>
       </c>
     </row>
@@ -3184,21 +3184,21 @@
         </is>
       </c>
       <c r="C40">
-        <v>3603</v>
+        <v>3631</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>04/03/2022</t>
+          <t>09/03/2022</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10156474261</t>
+          <t>20603536593</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>LINO LARREA CARLOS ENRIQUE</t>
+          <t>CENTRO OFTALMOLÓGICO NOBA VISIÓN E.I.R.L.</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3208,38 +3208,38 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
+          <t>GLAMAX EN OCUVIAL SOLUCIÓN OFTÁLMICA ESTÉRIL X 0,3ML X 30 VIALES</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
+          <t>GLAMAX EN OCUVIAL SOL OFT EST x 0.3ml</t>
         </is>
       </c>
       <c r="K40">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="L40">
-        <v>701.694</v>
+        <v>379.661</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>NORTE CHICO</t>
+          <t>NORTE GRANDE A</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>GILBERTO IZASIGA PAJUELO</t>
+          <t>GUSTAVO MASIAS SIANCAS</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROJO</t>
         </is>
       </c>
     </row>
@@ -3255,21 +3255,21 @@
         </is>
       </c>
       <c r="C41">
-        <v>3628</v>
+        <v>3643</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>09/03/2022</t>
+          <t>11/03/2022</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10421287347</t>
+          <t>10082949424</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>MISAICO QUISPE HERNAN</t>
+          <t>CHAVEZ ALIAGA JOSE ALBERTO</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3279,38 +3279,38 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>LAGRIMAS ISOTONICAS 1,4% SOL OFT EST x 15ml</t>
+          <t>HOPRX 0,005% EN OCUVIAL SOL.OFT.EST x 0.3ml</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>LAGRIMAS ISOTONICAS 1,4% SOL OFT EST x 15ml</t>
+          <t>HOPRX 0,005% EN OCUVIAL SOL.OFT.EST x 0.3ml</t>
         </is>
       </c>
       <c r="K41">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="L41">
-        <v>120.1524</v>
+        <v>1525.422</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>NORTE GRANDE B</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
+          <t>LUDEÑA MESA YURI ROBERTO</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROJO</t>
         </is>
       </c>
     </row>
@@ -3326,21 +3326,21 @@
         </is>
       </c>
       <c r="C42">
-        <v>3619</v>
+        <v>3597</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>07/03/2022</t>
+          <t>03/03/2022</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10240019731</t>
+          <t>20603611421</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>FUENTES VEGA JOSE ANTONIO</t>
+          <t>MIRAOPTIC OFTALMOLOGOS SAC</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3350,38 +3350,38 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>LAGRIMAS ISOTONICAS 1,4% SOL OFT EST x 15ml</t>
+          <t>HOPRX 0,005% EN OCUVIAL SOL.OFT.EST x 0.3ml</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>LAGRIMAS ISOTONICAS 1,4% SOL OFT EST x 15ml</t>
+          <t>HOPRX 0,005% EN OCUVIAL SOL.OFT.EST x 0.3ml</t>
         </is>
       </c>
       <c r="K42">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L42">
-        <v>187.966</v>
+        <v>305.0844</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>SUR ORIENTE</t>
+          <t>LIMA ESTE</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>PATRICIA LAZARTE</t>
+          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROJO</t>
         </is>
       </c>
     </row>
@@ -3397,21 +3397,21 @@
         </is>
       </c>
       <c r="C43">
-        <v>3586</v>
+        <v>3600</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>02/03/2022</t>
+          <t>03/03/2022</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>20604204381</t>
+          <t>20601583501</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>CENTRO DE ESPECIALIDADES MEDICAS DEL NORTE NEOSALU</t>
+          <t>RM CA E.I.R.L.</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3421,33 +3421,33 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>LANCIPROX DX SUSP OFT EST x 5ml</t>
+          <t>HOPRX 0,005% EN OCUVIAL SOL.OFT.EST x 0.3ml</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>LANCIPROX DX SUSP OFT EST x 5ml</t>
+          <t>HOPRX 0,005% EN OCUVIAL SOL.OFT.EST x 0.3ml</t>
         </is>
       </c>
       <c r="K43">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L43">
-        <v>330.3048</v>
+        <v>508.474</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>NORTE GRANDE B</t>
+          <t>LIMA SUR</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>LUDEÑA MESA YURI ROBERTO</t>
+          <t>ROSSANA URBINA ROJAS</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
@@ -3468,62 +3468,62 @@
         </is>
       </c>
       <c r="C44">
-        <v>2886</v>
+        <v>3631</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>03/03/2022</t>
+          <t>09/03/2022</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>23994135</t>
+          <t>20603536593</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>PANTI MORMONTOY RITHER</t>
+          <t>CENTRO OFTALMOLÓGICO NOBA VISIÓN E.I.R.L.</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>BV</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>LANCIPROX DX SUSP OFT EST x 5ml</t>
+          <t>HUMED 0,3% SOL OFT EST x 15ml.</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>LANCIPROX DX SUSP OFT EST x 5ml</t>
+          <t>HUMED 0,3% SOL OFT EST x 15ml.</t>
         </is>
       </c>
       <c r="K44">
         <v>20</v>
       </c>
       <c r="L44">
-        <v>447.456</v>
+        <v>209.322</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>SUR ORIENTE</t>
+          <t>NORTE GRANDE A</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>PATRICIA LAZARTE</t>
+          <t>GUSTAVO MASIAS SIANCAS</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>M</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>ROJO</t>
+          <t>COMUN</t>
         </is>
       </c>
     </row>
@@ -3539,21 +3539,21 @@
         </is>
       </c>
       <c r="C45">
-        <v>3619</v>
+        <v>3643</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>07/03/2022</t>
+          <t>11/03/2022</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10240019731</t>
+          <t>10082949424</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>FUENTES VEGA JOSE ANTONIO</t>
+          <t>CHAVEZ ALIAGA JOSE ALBERTO</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3563,28 +3563,28 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>LANCIPROX DX SUSP OFT EST x 5ml</t>
+          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>LANCIPROX DX SUSP OFT EST x 5ml</t>
+          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
         </is>
       </c>
       <c r="K45">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="L45">
-        <v>412.881</v>
+        <v>881.355</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>SUR ORIENTE</t>
+          <t>NORTE GRANDE B</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>PATRICIA LAZARTE</t>
+          <t>LUDEÑA MESA YURI ROBERTO</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>ROJO</t>
+          <t>AZUL</t>
         </is>
       </c>
     </row>
@@ -3610,21 +3610,21 @@
         </is>
       </c>
       <c r="C46">
-        <v>3586</v>
+        <v>3598</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>02/03/2022</t>
+          <t>03/03/2022</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>20604204381</t>
+          <t>10466431171</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>CENTRO DE ESPECIALIDADES MEDICAS DEL NORTE NEOSALU</t>
+          <t>MAITA TRUJILLO JOSEPH JOHNNY</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3634,28 +3634,28 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>MACUVIT X 60 CAPSULAS</t>
+          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>MACUVIT X 60 CAPSULAS</t>
+          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
         </is>
       </c>
       <c r="K46">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="L46">
-        <v>1195.932</v>
+        <v>1779.66</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>NORTE GRANDE B</t>
+          <t>LIMA CALLAO</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>LUDEÑA MESA YURI ROBERTO</t>
+          <t>MARIA DEL CARMEN CHERRE ESPEJO</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -3665,7 +3665,7 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>ROJO</t>
+          <t>AZUL</t>
         </is>
       </c>
     </row>
@@ -3681,21 +3681,21 @@
         </is>
       </c>
       <c r="C47">
-        <v>3619</v>
+        <v>3640</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>07/03/2022</t>
+          <t>10/03/2022</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10240019731</t>
+          <t>10180750512</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>FUENTES VEGA JOSE ANTONIO</t>
+          <t>CRUZALEGUI MENDEZ LUIS JOSE</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3705,28 +3705,28 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>MACUVIT X 60 CAPSULAS</t>
+          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>MACUVIT X 60 CAPSULAS</t>
+          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
         </is>
       </c>
       <c r="K47">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L47">
-        <v>498.305</v>
+        <v>584.745</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>SUR ORIENTE</t>
+          <t>LIMA ESTE</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>PATRICIA LAZARTE</t>
+          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>ROJO</t>
+          <t>AZUL</t>
         </is>
       </c>
     </row>
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="C48">
-        <v>3607</v>
+        <v>3613</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3776,19 +3776,19 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>MACUVIT X 60 CAPSULAS</t>
+          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>MACUVIT X 60 CAPSULAS</t>
+          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
         </is>
       </c>
       <c r="K48">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L48">
-        <v>498.305</v>
+        <v>584.745</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>ROJO</t>
+          <t>AZUL</t>
         </is>
       </c>
     </row>
@@ -3823,21 +3823,21 @@
         </is>
       </c>
       <c r="C49">
-        <v>3606</v>
+        <v>3592</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>04/03/2022</t>
+          <t>02/03/2022</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>20603126603</t>
+          <t>20608316974</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>OFTALNOVA E.I.R.L.</t>
+          <t>CASARO VISION EMPRESA INDIVIDUAL DE RESPONSABILIDAD LIMITADA</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -3847,28 +3847,28 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>MACUVIT X 60 CAPSULAS</t>
+          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>MACUVIT X 60 CAPSULAS</t>
+          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
         </is>
       </c>
       <c r="K49">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L49">
-        <v>996.61</v>
+        <v>467.796</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>SUR GRANDE</t>
+          <t>LIMA CALLAO</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>ROBERTO JIMENEZ OSORIO</t>
+          <t>MARIA DEL CARMEN CHERRE ESPEJO</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -3878,7 +3878,7 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>ROJO</t>
+          <t>AZUL</t>
         </is>
       </c>
     </row>
@@ -3894,52 +3894,52 @@
         </is>
       </c>
       <c r="C50">
-        <v>2889</v>
+        <v>3628</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>07/03/2022</t>
+          <t>09/03/2022</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>40970780</t>
+          <t>10421287347</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>ALVARO TAMBRA WENDY CAROLA</t>
+          <t>MISAICO QUISPE HERNAN</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>BV</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>MACUVIT X 60 CAPSULAS</t>
+          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>MACUVIT X 60 CAPSULAS</t>
+          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
         </is>
       </c>
       <c r="K50">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L50">
-        <v>1195.932</v>
+        <v>389.83</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>LIMA SUR</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>ROSSANA URBINA ROJAS</t>
+          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -3949,7 +3949,7 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>ROJO</t>
+          <t>AZUL</t>
         </is>
       </c>
     </row>
@@ -3965,21 +3965,21 @@
         </is>
       </c>
       <c r="C51">
-        <v>3624</v>
+        <v>3603</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>08/03/2022</t>
+          <t>04/03/2022</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10099217192</t>
+          <t>10156474261</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>DE LOS SANTOS SUAREZ LUIS ENRIQUE</t>
+          <t>LINO LARREA CARLOS ENRIQUE</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -3989,28 +3989,28 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>MEGATOB SOL OFT EST x 5ml</t>
+          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>MEGATOB SOL OFT EST x 5ml</t>
+          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
         </is>
       </c>
       <c r="K51">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="L51">
-        <v>1355.93</v>
+        <v>701.694</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>NORTE CHICO</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
+          <t>GILBERTO IZASIGA PAJUELO</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>ROJO</t>
+          <t>AZUL</t>
         </is>
       </c>
     </row>
@@ -4036,21 +4036,21 @@
         </is>
       </c>
       <c r="C52">
-        <v>3607</v>
+        <v>3586</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>07/03/2022</t>
+          <t>02/03/2022</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>20600860276</t>
+          <t>20604204381</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>MEDI VISTA E.I.R.L.</t>
+          <t>CENTRO DE ESPECIALIDADES MEDICAS DEL NORTE NEOSALU</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -4060,28 +4060,28 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>MEGATOB SOL OFT EST x 5ml</t>
+          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>MEGATOB SOL OFT EST x 5ml</t>
+          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
         </is>
       </c>
       <c r="K52">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L52">
-        <v>515.084</v>
+        <v>1559.32</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>LIMA CALLAO</t>
+          <t>NORTE GRANDE B</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>MARIA DEL CARMEN CHERRE ESPEJO</t>
+          <t>LUDEÑA MESA YURI ROBERTO</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -4091,7 +4091,7 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>ROJO</t>
+          <t>AZUL</t>
         </is>
       </c>
     </row>
@@ -4131,19 +4131,19 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>MEGATOB SOL OFT EST x 5ml</t>
+          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>MEGATOB SOL OFT EST x 5ml</t>
+          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
         </is>
       </c>
       <c r="K53">
         <v>10</v>
       </c>
       <c r="L53">
-        <v>257.542</v>
+        <v>175.423</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -4162,7 +4162,7 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>ROJO</t>
+          <t>AZUL</t>
         </is>
       </c>
     </row>
@@ -4178,21 +4178,21 @@
         </is>
       </c>
       <c r="C54">
-        <v>3609</v>
+        <v>3591</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>07/03/2022</t>
+          <t>02/03/2022</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10178749841</t>
+          <t>20601583501</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>RUIZ VIGO JORGE EDUARDO</t>
+          <t>RM CA E.I.R.L.</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -4202,28 +4202,28 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>MEGATOB SOL OFT EST x 5ml</t>
+          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>MEGATOB SOL OFT EST x 5ml</t>
+          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
         </is>
       </c>
       <c r="K54">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L54">
-        <v>406.779</v>
+        <v>466.1</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>NORTE MEDIO</t>
+          <t>LIMA SUR</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>CARLOS CUADRA PINILLOS</t>
+          <t>ROSSANA URBINA ROJAS</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -4233,7 +4233,7 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>ROJO</t>
+          <t>AZUL</t>
         </is>
       </c>
     </row>
@@ -4249,21 +4249,21 @@
         </is>
       </c>
       <c r="C55">
-        <v>3596</v>
+        <v>3635</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>03/03/2022</t>
+          <t>09/03/2022</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10402169503</t>
+          <t>20602550363</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>MENDOZA CALIZAYA YESSICA MARGOT</t>
+          <t>ESPECIALIDADES OFTALMOLOGICAS DR SULCA S.R.L.</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -4273,33 +4273,33 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>MELIUS EN OCUVIAL 0.2% SOL OFT</t>
+          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>MELIUS EN OCUVIAL 0.2% SOL OFT</t>
+          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
         </is>
       </c>
       <c r="K55">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="L55">
-        <v>320.3388</v>
+        <v>438.5575</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>LIMA CALLAO</t>
+          <t>NORTE GRANDE A</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>MARIA DEL CARMEN CHERRE ESPEJO</t>
+          <t>GUSTAVO MASIAS SIANCAS</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
@@ -4320,21 +4320,21 @@
         </is>
       </c>
       <c r="C56">
-        <v>3616</v>
+        <v>3631</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>07/03/2022</t>
+          <t>09/03/2022</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>20517943038</t>
+          <t>20603536593</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>OFTALASER SOCIEDAD COMERCIAL DE RESPONSABILIDAD LI</t>
+          <t>CENTRO OFTALMOLÓGICO NOBA VISIÓN E.I.R.L.</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -4344,33 +4344,38 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>OPTICANS SOL OFT EST X 10ML VENTA</t>
+          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>OPTICANS SOL OFT EST X 10ML VENTA</t>
+          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
         </is>
       </c>
       <c r="K56">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L56">
-        <v>329.152</v>
+        <v>263.1345</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>LIMA ESTE</t>
+          <t>NORTE GRANDE A</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
+          <t>GUSTAVO MASIAS SIANCAS</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>AZUL</t>
         </is>
       </c>
     </row>
@@ -4386,21 +4391,21 @@
         </is>
       </c>
       <c r="C57">
-        <v>3582</v>
+        <v>3626</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>01/03/2022</t>
+          <t>08/03/2022</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>20517943038</t>
+          <t>15253696025</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>OFTALASER SOCIEDAD COMERCIAL DE RESPONSABILIDAD LI</t>
+          <t>GUTIERREZ UMPIRE BRUNO EMILIO</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -4410,33 +4415,38 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>OPTICANS SOL OFT EST X 10ML VENTA</t>
+          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>OPTICANS SOL OFT EST X 10ML VENTA</t>
+          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
         </is>
       </c>
       <c r="K57">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="L57">
-        <v>197.4912</v>
+        <v>428.813</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>LIMA ESTE</t>
+          <t>SUR ORIENTE</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
+          <t>PATRICIA LAZARTE</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>AZUL</t>
         </is>
       </c>
     </row>
@@ -4452,43 +4462,43 @@
         </is>
       </c>
       <c r="C58">
-        <v>2881</v>
+        <v>3636</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>01/03/2022</t>
+          <t>09/03/2022</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>00010272349</t>
+          <t>20562605445</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>CASTRO GONZALES JUAN GABRIEL</t>
+          <t>CENTRO OFTALMOLOGICO ANDRADE S.A.C.</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>BV</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>OPTIDRY SOL OFT EST X 10ML VENTA</t>
+          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>OPTIDRY SOL OFT EST X 10ML VENTA</t>
+          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
         </is>
       </c>
       <c r="K58">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="L58">
-        <v>233.3898</v>
+        <v>889.83</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -4502,7 +4512,12 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>AZUL</t>
         </is>
       </c>
     </row>
@@ -4518,21 +4533,21 @@
         </is>
       </c>
       <c r="C59">
-        <v>3616</v>
+        <v>3630</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>07/03/2022</t>
+          <t>09/03/2022</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>20517943038</t>
+          <t>20480759754</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>OFTALASER SOCIEDAD COMERCIAL DE RESPONSABILIDAD LI</t>
+          <t>CLINICA DE OJOS GMR S.R.L.</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -4542,33 +4557,38 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>OPTIDRY SOL OFT EST X 10ML VENTA</t>
+          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>OPTIDRY SOL OFT EST X 10ML VENTA</t>
+          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
         </is>
       </c>
       <c r="K59">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L59">
-        <v>388.983</v>
+        <v>528.813</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>LIMA ESTE</t>
+          <t>NORTE GRANDE B</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
+          <t>LUDEÑA MESA YURI ROBERTO</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>AZUL</t>
         </is>
       </c>
     </row>
@@ -4584,21 +4604,21 @@
         </is>
       </c>
       <c r="C60">
-        <v>3582</v>
+        <v>3585</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>01/03/2022</t>
+          <t>02/03/2022</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>20517943038</t>
+          <t>20605592989</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>OFTALASER SOCIEDAD COMERCIAL DE RESPONSABILIDAD LI</t>
+          <t>OFTAVISION SOCIEDAD ANONIMA CERRADA</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -4608,33 +4628,38 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>OPTIPINK SOL OFT EST X 10ML VENTA</t>
+          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>OPTIPINK SOL OFT EST X 10ML VENTA</t>
+          <t>HYALO COMFORT 0.4% SOLUCION OFTALMICA X 10ML</t>
         </is>
       </c>
       <c r="K60">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L60">
-        <v>197.4912</v>
+        <v>292.3725</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>LIMA ESTE</t>
+          <t>LIMA NORTE</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
+          <t>ISABEL SEMINARIO GARCIA</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>AZUL</t>
         </is>
       </c>
     </row>
@@ -4650,21 +4675,21 @@
         </is>
       </c>
       <c r="C61">
-        <v>3616</v>
+        <v>3628</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>07/03/2022</t>
+          <t>09/03/2022</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>20517943038</t>
+          <t>10421287347</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>OFTALASER SOCIEDAD COMERCIAL DE RESPONSABILIDAD LI</t>
+          <t>MISAICO QUISPE HERNAN</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -4674,23 +4699,23 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>OPTIPINK SOL OFT EST X 10ML VENTA</t>
+          <t>LAGRIMAS ISOTONICAS 1,4% SOL OFT EST x 15ml</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>OPTIPINK SOL OFT EST X 10ML VENTA</t>
+          <t>LAGRIMAS ISOTONICAS 1,4% SOL OFT EST x 15ml</t>
         </is>
       </c>
       <c r="K61">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="L61">
-        <v>658.304</v>
+        <v>120.1524</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>LIMA ESTE</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4700,7 +4725,12 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>AZUL</t>
         </is>
       </c>
     </row>
@@ -4716,57 +4746,62 @@
         </is>
       </c>
       <c r="C62">
-        <v>2881</v>
+        <v>3619</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>01/03/2022</t>
+          <t>07/03/2022</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>00010272349</t>
+          <t>10240019731</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>CASTRO GONZALES JUAN GABRIEL</t>
+          <t>FUENTES VEGA JOSE ANTONIO</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>BV</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>OPTIPINK SOL OFT EST X 10ML VENTA</t>
+          <t>LAGRIMAS ISOTONICAS 1,4% SOL OFT EST x 15ml</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>OPTIPINK SOL OFT EST X 10ML VENTA</t>
+          <t>LAGRIMAS ISOTONICAS 1,4% SOL OFT EST x 15ml</t>
         </is>
       </c>
       <c r="K62">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L62">
-        <v>98.7456</v>
+        <v>187.966</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>LIMA NORTE</t>
+          <t>SUR ORIENTE</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>ISABEL SEMINARIO GARCIA</t>
+          <t>PATRICIA LAZARTE</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>AZUL</t>
         </is>
       </c>
     </row>
@@ -4782,21 +4817,21 @@
         </is>
       </c>
       <c r="C63">
-        <v>3617</v>
+        <v>3629</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>07/03/2022</t>
+          <t>09/03/2022</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>20450719286</t>
+          <t>10086420797</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>NEGOCIOS OPTICOS Y AUDITIVOS E.I.R.L</t>
+          <t>QUICHIZ RIVEROS JOSE MANUEL</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -4806,28 +4841,28 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>PATADINE PLUS 0.2% SOL OFT EST x 5ml</t>
+          <t>LAMOFLOX 0.5% SOL OFT ESTl x 5ml</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>PATADINE PLUS 0.2% SOL OFT EST x 5ml</t>
+          <t>LAMOFLOX 0.5% SOL OFT ESTl x 5ml</t>
         </is>
       </c>
       <c r="K63">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L63">
-        <v>960</v>
+        <v>2016.1</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>SUR ORIENTE</t>
+          <t>NORTE GRANDE B</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>PATRICIA LAZARTE</t>
+          <t>LUDEÑA MESA YURI ROBERTO</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -4853,21 +4888,21 @@
         </is>
       </c>
       <c r="C64">
-        <v>3628</v>
+        <v>3637</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>09/03/2022</t>
+          <t>10/03/2022</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10421287347</t>
+          <t>10038858667</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>MISAICO QUISPE HERNAN</t>
+          <t>DEL PIELAGO PRIETO LUIS GUILLERMO</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -4877,28 +4912,28 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>PREDNISOLONA ACETATO 1% SUSP OFT EST x 5 ml</t>
+          <t>LANCIPROX  0,3% SOL OFT EST x 5ml</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>PREDNISOLONA ACETATO 1% SUSP OFT EST x 5 ml</t>
+          <t>LANCIPROX  0,3% SOL OFT EST X 5ML</t>
         </is>
       </c>
       <c r="K64">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L64">
-        <v>440.592</v>
+        <v>250.338</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>LIMA CALLAO</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
+          <t>MARIA DEL CARMEN CHERRE ESPEJO</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -4948,19 +4983,19 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>PREDNISOLONA ACETATO 1% SUSP OFT EST x 5 ml</t>
+          <t>LANCIPROX DX SUSP OFT EST x 5ml</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>PREDNISOLONA ACETATO 1% SUSP OFT EST x 5 ml</t>
+          <t>LANCIPROX DX SUSP OFT EST x 5ml</t>
         </is>
       </c>
       <c r="K65">
         <v>12</v>
       </c>
       <c r="L65">
-        <v>167.796</v>
+        <v>330.3048</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
@@ -4974,12 +5009,12 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROJO</t>
         </is>
       </c>
     </row>
@@ -4995,62 +5030,62 @@
         </is>
       </c>
       <c r="C66">
-        <v>3586</v>
+        <v>2886</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>02/03/2022</t>
+          <t>03/03/2022</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>20604204381</t>
+          <t>23994135</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>CENTRO DE ESPECIALIDADES MEDICAS DEL NORTE NEOSALU</t>
+          <t>PANTI MORMONTOY RITHER</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>BV</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>PREDSO 1% SUSP OFT EST x 5 ml</t>
+          <t>LANCIPROX DX SUSP OFT EST x 5ml</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>PREDSO 1% SUSP OFT EST x 5 ml</t>
+          <t>LANCIPROX DX SUSP OFT EST x 5ml</t>
         </is>
       </c>
       <c r="K66">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L66">
-        <v>255.2532</v>
+        <v>447.456</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>NORTE GRANDE B</t>
+          <t>SUR ORIENTE</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>LUDEÑA MESA YURI ROBERTO</t>
+          <t>PATRICIA LAZARTE</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROJO</t>
         </is>
       </c>
     </row>
@@ -5066,7 +5101,7 @@
         </is>
       </c>
       <c r="C67">
-        <v>3621</v>
+        <v>3619</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5075,12 +5110,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10238853571</t>
+          <t>10240019731</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>TICONA PARI JOSE FREDDY</t>
+          <t>FUENTES VEGA JOSE ANTONIO</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -5090,38 +5125,38 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>PREDSO 1% SUSP OFT EST x 5 ml</t>
+          <t>LANCIPROX DX SUSP OFT EST x 5ml</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>PREDSO 1% SUSP OFT EST x 5 ml</t>
+          <t>LANCIPROX DX SUSP OFT EST x 5ml</t>
         </is>
       </c>
       <c r="K67">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L67">
-        <v>559.3200000000001</v>
+        <v>412.881</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>LIMA CALLAO</t>
+          <t>SUR ORIENTE</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>ERIKA JESUS MORENO MEZA</t>
+          <t>PATRICIA LAZARTE</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROJO</t>
         </is>
       </c>
     </row>
@@ -5137,21 +5172,21 @@
         </is>
       </c>
       <c r="C68">
-        <v>3624</v>
+        <v>3619</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>08/03/2022</t>
+          <t>07/03/2022</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10099217192</t>
+          <t>10240019731</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>DE LOS SANTOS SUAREZ LUIS ENRIQUE</t>
+          <t>FUENTES VEGA JOSE ANTONIO</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -5161,28 +5196,28 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>REFRESKAN - T PLUS 0.5% SOL OFT EST x 15ml</t>
+          <t>MACUVIT X 60 CAPSULAS</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>REFRESKAN - T PLUS 0.5% SOL OFT EST x 15ml</t>
+          <t>MACUVIT X 60 CAPSULAS</t>
         </is>
       </c>
       <c r="K68">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L68">
-        <v>381.355</v>
+        <v>498.305</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>SUR ORIENTE</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
+          <t>PATRICIA LAZARTE</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -5192,7 +5227,7 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROJO</t>
         </is>
       </c>
     </row>
@@ -5208,21 +5243,21 @@
         </is>
       </c>
       <c r="C69">
-        <v>3624</v>
+        <v>3607</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>08/03/2022</t>
+          <t>07/03/2022</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10099217192</t>
+          <t>20600860276</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>DE LOS SANTOS SUAREZ LUIS ENRIQUE</t>
+          <t>MEDI VISTA E.I.R.L.</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -5232,38 +5267,38 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>S-10  10% SOL OFT EST x 15ml</t>
+          <t>MACUVIT X 60 CAPSULAS</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>S-10  10% SOL OFT EST x 15ml</t>
+          <t>MACUVIT X 60 CAPSULAS</t>
         </is>
       </c>
       <c r="K69">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="L69">
-        <v>677.96</v>
+        <v>498.305</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>LIMA CALLAO</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
+          <t>MARIA DEL CARMEN CHERRE ESPEJO</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>COMUN</t>
+          <t>ROJO</t>
         </is>
       </c>
     </row>
@@ -5279,7 +5314,7 @@
         </is>
       </c>
       <c r="C70">
-        <v>3590</v>
+        <v>3586</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5288,12 +5323,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10167979225</t>
+          <t>20604204381</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>PARRAGUEZ GONZALES FERNANDO EUGENIO</t>
+          <t>CENTRO DE ESPECIALIDADES MEDICAS DEL NORTE NEOSALU</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -5303,19 +5338,19 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>SYSTALAN EN OCUVIAL SOL.OFT.EST x 0.4ml</t>
+          <t>MACUVIT X 60 CAPSULAS</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>SYSTALAN EN OCUVIAL SOL.OFT.EST x 0.4ml</t>
+          <t>MACUVIT X 60 CAPSULAS</t>
         </is>
       </c>
       <c r="K70">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="L70">
-        <v>762.711</v>
+        <v>1195.932</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
@@ -5329,12 +5364,12 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROJO</t>
         </is>
       </c>
     </row>
@@ -5350,62 +5385,62 @@
         </is>
       </c>
       <c r="C71">
-        <v>3585</v>
+        <v>2901</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>02/03/2022</t>
+          <t>10/03/2022</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>20605592989</t>
+          <t>47482744</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>OFTAVISION SOCIEDAD ANONIMA CERRADA</t>
+          <t>ESTACIO SAUCEDO ROSA NOEMI</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>BV</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>SYSTALAN EN OCUVIAL SOL.OFT.EST x 0.4ml</t>
+          <t>MACUVIT X 60 CAPSULAS</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>SYSTALAN EN OCUVIAL SOL.OFT.EST x 0.4ml</t>
+          <t>MACUVIT X 60 CAPSULAS</t>
         </is>
       </c>
       <c r="K71">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="L71">
-        <v>254.237</v>
+        <v>996.61</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>LIMA NORTE</t>
+          <t>NORTE MEDIO</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>ISABEL SEMINARIO GARCIA</t>
+          <t>CARLOS CUADRA PINILLOS</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROJO</t>
         </is>
       </c>
     </row>
@@ -5445,19 +5480,19 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>SYSTALAN SOL OFT EST x 15ml</t>
+          <t>MACUVIT X 60 CAPSULAS</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>SYSTALAN SOL OFT EST x 15ml</t>
+          <t>MACUVIT X 60 CAPSULAS</t>
         </is>
       </c>
       <c r="K72">
         <v>20</v>
       </c>
       <c r="L72">
-        <v>622.88</v>
+        <v>996.61</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -5476,7 +5511,7 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROJO</t>
         </is>
       </c>
     </row>
@@ -5492,52 +5527,52 @@
         </is>
       </c>
       <c r="C73">
-        <v>3585</v>
+        <v>2889</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>02/03/2022</t>
+          <t>07/03/2022</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>20605592989</t>
+          <t>40970780</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>OFTAVISION SOCIEDAD ANONIMA CERRADA</t>
+          <t>ALVARO TAMBRA WENDY CAROLA</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>BV</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>SYSTALAN  ULTRA SOL. OFT. X 10ML</t>
+          <t>MACUVIT X 60 CAPSULAS</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>SYSTALAN  ULTRA SOL. OFT. X 10ML</t>
+          <t>MACUVIT X 60 CAPSULAS</t>
         </is>
       </c>
       <c r="K73">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="L73">
-        <v>467.16</v>
+        <v>1195.932</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>LIMA NORTE</t>
+          <t>LIMA SUR</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>ISABEL SEMINARIO GARCIA</t>
+          <t>ROSSANA URBINA ROJAS</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
@@ -5547,7 +5582,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>AZUL</t>
+          <t>ROJO</t>
         </is>
       </c>
     </row>
@@ -5563,21 +5598,21 @@
         </is>
       </c>
       <c r="C74">
-        <v>3604</v>
+        <v>3641</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>04/03/2022</t>
+          <t>10/03/2022</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>20525179401</t>
+          <t>20480232829</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>SOCIAL MEDICAL S.A.C.</t>
+          <t>CLINICA DE OJOS OPHTO SALUD SRL</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -5587,33 +5622,33 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>TERRACORSOL UNG OFT/OTICO EST x 3.5g</t>
+          <t>MACUVIT X 60 CAPSULAS</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>TERRACORSOL UNG OFT/OTICO EST x 3.5g</t>
+          <t>MACUVIT X 60 CAPSULAS</t>
         </is>
       </c>
       <c r="K74">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="L74">
-        <v>78.3048</v>
+        <v>747.4575</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>LIMA CALLAO</t>
+          <t>NORTE GRANDE B</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>ERIKA JESUS MORENO MEZA</t>
+          <t>LUDEÑA MESA YURI ROBERTO</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
@@ -5634,57 +5669,57 @@
         </is>
       </c>
       <c r="C75">
-        <v>3627</v>
+        <v>2901</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>09/03/2022</t>
+          <t>10/03/2022</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10158518126</t>
+          <t>47482744</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>ESPINOZA OSTOS MEIDA ANAMITH</t>
+          <t>ESTACIO SAUCEDO ROSA NOEMI</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>BV</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>TERRACORSOL UNG OFT/OTICO EST x 3.5g</t>
+          <t>MEGATOB SOL OFT EST x 5ml</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>TERRACORSOL UNG OFT/OTICO EST x 3.5g</t>
+          <t>MEGATOB SOL OFT EST x 5ml</t>
         </is>
       </c>
       <c r="K75">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L75">
-        <v>220</v>
+        <v>1271.1185</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>LIMA ESTE</t>
+          <t>NORTE MEDIO</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
+          <t>CARLOS CUADRA PINILLOS</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
@@ -5705,21 +5740,21 @@
         </is>
       </c>
       <c r="C76">
-        <v>3583</v>
+        <v>3624</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>01/03/2022</t>
+          <t>08/03/2022</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>20601969051</t>
+          <t>10099217192</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>VISION MONTECRISTO S.R.L.</t>
+          <t>DE LOS SANTOS SUAREZ LUIS ENRIQUE</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -5729,23 +5764,23 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>TERRACORSOL UNG OFT/OTICO EST x 3.5g</t>
+          <t>MEGATOB SOL OFT EST x 5ml</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>TERRACORSOL UNG OFT/OTICO EST x 3.5g</t>
+          <t>MEGATOB SOL OFT EST x 5ml</t>
         </is>
       </c>
       <c r="K76">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="L76">
-        <v>99</v>
+        <v>1355.93</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>LIMA ESTE</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5755,7 +5790,7 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
@@ -5776,21 +5811,21 @@
         </is>
       </c>
       <c r="C77">
-        <v>3583</v>
+        <v>3609</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>01/03/2022</t>
+          <t>07/03/2022</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>20601969051</t>
+          <t>10178749841</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>VISION MONTECRISTO S.R.L.</t>
+          <t>RUIZ VIGO JORGE EDUARDO</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -5800,38 +5835,38 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>TERRAMISOL - A UNG OFT EST x 6g</t>
+          <t>MEGATOB SOL OFT EST x 5ml</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>TERRAMISOL - A UNG OFT EST x 6g</t>
+          <t>MEGATOB SOL OFT EST x 5ml</t>
         </is>
       </c>
       <c r="K77">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="L77">
-        <v>106.6266</v>
+        <v>406.779</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>LIMA ESTE</t>
+          <t>NORTE MEDIO</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
+          <t>CARLOS CUADRA PINILLOS</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>COMUN</t>
+          <t>ROJO</t>
         </is>
       </c>
     </row>
@@ -5847,7 +5882,7 @@
         </is>
       </c>
       <c r="C78">
-        <v>3619</v>
+        <v>3607</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5856,12 +5891,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10240019731</t>
+          <t>20600860276</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>FUENTES VEGA JOSE ANTONIO</t>
+          <t>MEDI VISTA E.I.R.L.</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -5871,33 +5906,33 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>TIMOX  SOL OFT EST x 5ml</t>
+          <t>MEGATOB SOL OFT EST x 5ml</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>TIMOX  SOL OFT EST X 5ML</t>
+          <t>MEGATOB SOL OFT EST x 5ml</t>
         </is>
       </c>
       <c r="K78">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L78">
-        <v>144.745</v>
+        <v>515.084</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>SUR ORIENTE</t>
+          <t>LIMA CALLAO</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>PATRICIA LAZARTE</t>
+          <t>MARIA DEL CARMEN CHERRE ESPEJO</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
@@ -5918,57 +5953,57 @@
         </is>
       </c>
       <c r="C79">
-        <v>2879</v>
+        <v>3634</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>01/03/2022</t>
+          <t>09/03/2022</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10643881</t>
+          <t>10081529103</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>IZASIGA PAJUELO BILBERTO</t>
+          <t>ROJAS RUIZ GILMER</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>BV</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>TIMOX  SOL OFT EST x 5ml</t>
+          <t>MEGATOB SOL OFT EST x 5ml</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>TIMOX  SOL OFT EST X 5ML</t>
+          <t>MEGATOB SOL OFT EST x 5ml</t>
         </is>
       </c>
       <c r="K79">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="L79">
-        <v>28</v>
+        <v>618.1008000000001</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>LIMA ESTE</t>
+          <t>NORTE GRANDE A</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>GILBERTO IZASIGA PAJUELO</t>
+          <t>GUSTAVO MASIAS SIANCAS</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
@@ -5989,7 +6024,7 @@
         </is>
       </c>
       <c r="C80">
-        <v>3615</v>
+        <v>3619</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5998,12 +6033,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>20604725381</t>
+          <t>10240019731</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>OFTALMORETINA S.A.C.</t>
+          <t>FUENTES VEGA JOSE ANTONIO</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -6013,33 +6048,33 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>TOBRAZOL DX SUSP OFT EST x 5ml</t>
+          <t>MEGATOB SOL OFT EST x 5ml</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>TOBRAZOL DX SUSP OFT EST x 5ml</t>
+          <t>MEGATOB SOL OFT EST x 5ml</t>
         </is>
       </c>
       <c r="K80">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L80">
-        <v>292.5756</v>
+        <v>257.542</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>LIMA ESTE</t>
+          <t>SUR ORIENTE</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
+          <t>PATRICIA LAZARTE</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
@@ -6060,21 +6095,21 @@
         </is>
       </c>
       <c r="C81">
-        <v>3623</v>
+        <v>3596</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>08/03/2022</t>
+          <t>03/03/2022</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>15253696025</t>
+          <t>10402169503</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>GUTIERREZ UMPIRE BRUNO EMILIO</t>
+          <t>MENDOZA CALIZAYA YESSICA MARGOT</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -6084,38 +6119,38 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>TOBRAZOL DX SUSP OFT EST x 5ml</t>
+          <t>MELIUS EN OCUVIAL 0.2% SOL OFT</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>TOBRAZOL DX SUSP OFT EST x 5ml</t>
+          <t>MELIUS EN OCUVIAL 0.2% SOL OFT</t>
         </is>
       </c>
       <c r="K81">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="L81">
-        <v>462.71</v>
+        <v>320.3388</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>SUR ORIENTE</t>
+          <t>LIMA CALLAO</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>PATRICIA LAZARTE</t>
+          <t>MARIA DEL CARMEN CHERRE ESPEJO</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>ROJO</t>
+          <t>AZUL</t>
         </is>
       </c>
     </row>
@@ -6131,21 +6166,21 @@
         </is>
       </c>
       <c r="C82">
-        <v>3586</v>
+        <v>3638</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>02/03/2022</t>
+          <t>10/03/2022</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>20604204381</t>
+          <t>20602225039</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>CENTRO DE ESPECIALIDADES MEDICAS DEL NORTE NEOSALU</t>
+          <t>CIRUVISION SOCIEDAD ANONIMA CERRADA</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -6155,38 +6190,38 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>TOBRAZOL DX UNGÜENTO X 3.5 GRS</t>
+          <t>MELIUS EN OCUVIAL 0.2% SOL OFT</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>TOBRAZOL DX UNGÜENTO X 3.5 GRS</t>
+          <t>MELIUS EN OCUVIAL 0.2% SOL OFT</t>
         </is>
       </c>
       <c r="K82">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L82">
-        <v>355.932</v>
+        <v>508.474</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>NORTE GRANDE B</t>
+          <t>LIMA NORTE</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>LUDEÑA MESA YURI ROBERTO</t>
+          <t>ISABEL SEMINARIO GARCIA</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>O</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>ROJO</t>
+          <t>AZUL</t>
         </is>
       </c>
     </row>
@@ -6202,21 +6237,21 @@
         </is>
       </c>
       <c r="C83">
-        <v>3601</v>
+        <v>3582</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>04/03/2022</t>
+          <t>01/03/2022</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>20563762838</t>
+          <t>20517943038</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>CENTRO MEDICO MENDOZA E.I.R.L.</t>
+          <t>OFTALASER SOCIEDAD COMERCIAL DE RESPONSABILIDAD LI</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -6226,23 +6261,23 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>TOBRAZOL DX UNGÜENTO X 3.5 GRS</t>
+          <t>OPTICANS SOL OFT EST X 10ML VENTA</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>TOBRAZOL DX UNGÜENTO X 3.5 GRS</t>
+          <t>OPTICANS SOL OFT EST X 10ML VENTA</t>
         </is>
       </c>
       <c r="K83">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="L83">
-        <v>741.525</v>
+        <v>197.4912</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>LIMA ESTE</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6252,12 +6287,7 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>ROJO</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -6273,7 +6303,7 @@
         </is>
       </c>
       <c r="C84">
-        <v>3611</v>
+        <v>3616</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6282,12 +6312,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>20605280952</t>
+          <t>20517943038</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>APTIVA SERVICIOS OFTALMOLOGICOS E.I.R.L.</t>
+          <t>OFTALASER SOCIEDAD COMERCIAL DE RESPONSABILIDAD LI</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -6297,38 +6327,33 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>TROPICAMIDA 1% SOL OFT EST x 15ml</t>
+          <t>OPTICANS SOL OFT EST X 10ML VENTA</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>TROPICAMIDA 1% SOL OFT EST x 15ml</t>
+          <t>OPTICANS SOL OFT EST X 10ML VENTA</t>
         </is>
       </c>
       <c r="K84">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L84">
-        <v>356.1855</v>
+        <v>329.152</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>NORTE GRANDE B</t>
+          <t>LIMA ESTE</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>LUDEÑA MESA YURI ROBERTO</t>
+          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>COMUN</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -6344,21 +6369,21 @@
         </is>
       </c>
       <c r="C85">
-        <v>3584</v>
+        <v>54</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>01/03/2022</t>
+          <t>10/03/2022</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>20517984656</t>
+          <t>20517943038</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>SOCIEDAD MEDICA OFTALMYCA SRL</t>
+          <t>OFTALASER SOCIEDAD COMERCIAL DE RESPONSABILIDAD LI</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -6368,23 +6393,23 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>TROPICAMIDA 1% SOL OFT EST x 15ml</t>
+          <t>OPTICANS SOL OFT EST X 10ML VENTA</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>TROPICAMIDA 1% SOL OFT EST x 15ml</t>
+          <t>OPTICANS SOL OFT EST X 10ML VENTA</t>
         </is>
       </c>
       <c r="K85">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L85">
-        <v>299.1864</v>
+        <v>0.5</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>LIMA ESTE</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6394,12 +6419,7 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>COMUN</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -6415,62 +6435,57 @@
         </is>
       </c>
       <c r="C86">
-        <v>3622</v>
+        <v>2881</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>08/03/2022</t>
+          <t>01/03/2022</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>20603066988</t>
+          <t>00010272349</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>RETINA VISION E.I.R.L</t>
+          <t>CASTRO GONZALES JUAN GABRIEL</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>BV</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>TROPICAMIDA 1% SOL OFT EST x 15ml</t>
+          <t>OPTIDRY SOL OFT EST X 10ML VENTA</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>TROPICAMIDA 1% SOL OFT EST x 15ml</t>
+          <t>OPTIDRY SOL OFT EST X 10ML VENTA</t>
         </is>
       </c>
       <c r="K86">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L86">
-        <v>284.9484</v>
+        <v>233.3898</v>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>NORTE GRANDE B</t>
+          <t>LIMA NORTE</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>LUDEÑA MESA YURI ROBERTO</t>
+          <t>ISABEL SEMINARIO GARCIA</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>COMUN</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -6486,21 +6501,21 @@
         </is>
       </c>
       <c r="C87">
-        <v>3587</v>
+        <v>54</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>02/03/2022</t>
+          <t>10/03/2022</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>20559876373</t>
+          <t>20517943038</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>MEDICINA GLOBAL TRUJILLO S.A.C</t>
+          <t>OFTALASER SOCIEDAD COMERCIAL DE RESPONSABILIDAD LI</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -6510,38 +6525,33 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>TROPICAMIDA 1% SOL OFT EST x 15ml</t>
+          <t>OPTIDRY SOL OFT EST X 10ML VENTA</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>TROPICAMIDA 1% SOL OFT EST x 15ml</t>
+          <t>OPTIDRY SOL OFT EST X 10ML VENTA</t>
         </is>
       </c>
       <c r="K87">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L87">
-        <v>284.9484</v>
+        <v>0.5</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>NORTE MEDIO</t>
+          <t>LIMA ESTE</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>CARLOS CUADRA PINILLOS</t>
+          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>COMUN</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -6557,21 +6567,21 @@
         </is>
       </c>
       <c r="C88">
-        <v>3627</v>
+        <v>3616</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>09/03/2022</t>
+          <t>07/03/2022</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>10158518126</t>
+          <t>20517943038</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>ESPINOZA OSTOS MEIDA ANAMITH</t>
+          <t>OFTALASER SOCIEDAD COMERCIAL DE RESPONSABILIDAD LI</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -6581,19 +6591,19 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>TROPICAMIDA 1% SOL OFT EST x 15ml</t>
+          <t>OPTIDRY SOL OFT EST X 10ML VENTA</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>TROPICAMIDA 1% SOL OFT EST x 15ml</t>
+          <t>OPTIDRY SOL OFT EST X 10ML VENTA</t>
         </is>
       </c>
       <c r="K88">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L88">
-        <v>149.5932</v>
+        <v>388.983</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
@@ -6607,12 +6617,7 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>COMUN</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -6628,62 +6633,57 @@
         </is>
       </c>
       <c r="C89">
-        <v>3628</v>
+        <v>2881</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>09/03/2022</t>
+          <t>01/03/2022</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>10421287347</t>
+          <t>00010272349</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>MISAICO QUISPE HERNAN</t>
+          <t>CASTRO GONZALES JUAN GABRIEL</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>BV</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>TRUSOMIDA 2% SOL OFT EST x 5ml</t>
+          <t>OPTIPINK SOL OFT EST X 10ML VENTA</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>TRUSOMIDA 2% SOL OFT EST x 5ml</t>
+          <t>OPTIPINK SOL OFT EST X 10ML VENTA</t>
         </is>
       </c>
       <c r="K89">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L89">
-        <v>141.6948</v>
+        <v>98.7456</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>LIMA NORTE</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
+          <t>ISABEL SEMINARIO GARCIA</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="Q89" t="inlineStr">
-        <is>
-          <t>ROJO</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -6699,21 +6699,21 @@
         </is>
       </c>
       <c r="C90">
-        <v>3625</v>
+        <v>3616</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>08/03/2022</t>
+          <t>07/03/2022</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>20601969051</t>
+          <t>20517943038</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>VISION MONTECRISTO S.R.L.</t>
+          <t>OFTALASER SOCIEDAD COMERCIAL DE RESPONSABILIDAD LI</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -6723,19 +6723,19 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>VISTAGEL GEL OFT EST x 12g</t>
+          <t>OPTIPINK SOL OFT EST X 10ML VENTA</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>VISTAGEL GEL OFT EST x 12g</t>
+          <t>OPTIPINK SOL OFT EST X 10ML VENTA</t>
         </is>
       </c>
       <c r="K90">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="L90">
-        <v>134.322</v>
+        <v>658.304</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6749,12 +6749,7 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="Q90" t="inlineStr">
-        <is>
-          <t>AZUL</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -6770,21 +6765,21 @@
         </is>
       </c>
       <c r="C91">
-        <v>3594</v>
+        <v>3582</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>02/03/2022</t>
+          <t>01/03/2022</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>20453914772</t>
+          <t>20517943038</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>ASOCIACION PRO ESPIRITU SANTO</t>
+          <t>OFTALASER SOCIEDAD COMERCIAL DE RESPONSABILIDAD LI</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -6794,19 +6789,19 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>VISTAGEL GEL OFT EST x 12g</t>
+          <t>OPTIPINK SOL OFT EST X 10ML VENTA</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>VISTAGEL GEL OFT EST x 12g</t>
+          <t>OPTIPINK SOL OFT EST X 10ML VENTA</t>
         </is>
       </c>
       <c r="K91">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L91">
-        <v>53.7288</v>
+        <v>197.4912</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6820,12 +6815,7 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="Q91" t="inlineStr">
-        <is>
-          <t>AZUL</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -6841,21 +6831,21 @@
         </is>
       </c>
       <c r="C92">
-        <v>3614</v>
+        <v>54</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>07/03/2022</t>
+          <t>10/03/2022</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>20513961112</t>
+          <t>20517943038</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>SOLUCIONES E INVERSIONES EN SALUD SOCIEDAD ANONIMA</t>
+          <t>OFTALASER SOCIEDAD COMERCIAL DE RESPONSABILIDAD LI</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -6865,19 +6855,19 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>XENDA Soft.Oft. X 3 ML</t>
+          <t>OPTIPINK SOL OFT EST X 10ML VENTA</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>XENDA Soft.Oft. X 3 ML</t>
+          <t>OPTIPINK SOL OFT EST X 10ML VENTA</t>
         </is>
       </c>
       <c r="K92">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L92">
-        <v>1016.948</v>
+        <v>1</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -6891,12 +6881,7 @@
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="Q92" t="inlineStr">
-        <is>
-          <t>ROJO</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -6912,60 +6897,2824 @@
         </is>
       </c>
       <c r="C93">
+        <v>3617</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>07/03/2022</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>20450719286</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>NEGOCIOS OPTICOS Y AUDITIVOS E.I.R.L</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>PATADINE PLUS 0.2% SOL OFT EST x 5ml</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>PATADINE PLUS 0.2% SOL OFT EST x 5ml</t>
+        </is>
+      </c>
+      <c r="K93">
+        <v>30</v>
+      </c>
+      <c r="L93">
+        <v>960</v>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>SUR ORIENTE</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>PATRICIA LAZARTE</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>METRONIC</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C94">
+        <v>3643</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>11/03/2022</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>10082949424</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>CHAVEZ ALIAGA JOSE ALBERTO</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>PREDNISOLONA ACETATO 1% SUSP OFT EST x 5 ml</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>PREDNISOLONA ACETATO 1% SUSP OFT EST x 5 ml</t>
+        </is>
+      </c>
+      <c r="K94">
+        <v>50</v>
+      </c>
+      <c r="L94">
+        <v>699.15</v>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>NORTE GRANDE B</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>LUDEÑA MESA YURI ROBERTO</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>METRONIC</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C95">
+        <v>3586</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>02/03/2022</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>20604204381</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>CENTRO DE ESPECIALIDADES MEDICAS DEL NORTE NEOSALU</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>PREDNISOLONA ACETATO 1% SUSP OFT EST x 5 ml</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>PREDNISOLONA ACETATO 1% SUSP OFT EST x 5 ml</t>
+        </is>
+      </c>
+      <c r="K95">
+        <v>12</v>
+      </c>
+      <c r="L95">
+        <v>167.796</v>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>NORTE GRANDE B</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>LUDEÑA MESA YURI ROBERTO</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>METRONIC</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C96">
+        <v>3628</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>09/03/2022</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>10421287347</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>MISAICO QUISPE HERNAN</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>PREDNISOLONA ACETATO 1% SUSP OFT EST x 5 ml</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>PREDNISOLONA ACETATO 1% SUSP OFT EST x 5 ml</t>
+        </is>
+      </c>
+      <c r="K96">
+        <v>30</v>
+      </c>
+      <c r="L96">
+        <v>440.592</v>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>METRONIC</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C97">
+        <v>3621</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>07/03/2022</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>10238853571</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>TICONA PARI JOSE FREDDY</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>PREDSO 1% SUSP OFT EST x 5 ml</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>PREDSO 1% SUSP OFT EST x 5 ml</t>
+        </is>
+      </c>
+      <c r="K97">
+        <v>30</v>
+      </c>
+      <c r="L97">
+        <v>559.3200000000001</v>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>LIMA CALLAO</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>ERIKA JESUS MORENO MEZA</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>METRONIC</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C98">
+        <v>3586</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>02/03/2022</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>20604204381</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>CENTRO DE ESPECIALIDADES MEDICAS DEL NORTE NEOSALU</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>PREDSO 1% SUSP OFT EST x 5 ml</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>PREDSO 1% SUSP OFT EST x 5 ml</t>
+        </is>
+      </c>
+      <c r="K98">
+        <v>12</v>
+      </c>
+      <c r="L98">
+        <v>255.2532</v>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>NORTE GRANDE B</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>LUDEÑA MESA YURI ROBERTO</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>METRONIC</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C99">
+        <v>3637</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>10/03/2022</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>10038858667</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>DEL PIELAGO PRIETO LUIS GUILLERMO</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>PREDSO 1% SUSP OFT EST x 5 ml</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>PREDSO 1% SUSP OFT EST x 5 ml</t>
+        </is>
+      </c>
+      <c r="K99">
+        <v>20</v>
+      </c>
+      <c r="L99">
+        <v>372.88</v>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>LIMA CALLAO</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>MARIA DEL CARMEN CHERRE ESPEJO</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>METRONIC</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C100">
+        <v>3637</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>10/03/2022</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>10038858667</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>DEL PIELAGO PRIETO LUIS GUILLERMO</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>REFRESKAN - T PLUS 0.5% SOL OFT EST x 15ml</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>REFRESKAN - T PLUS 0.5% SOL OFT EST x 15ml</t>
+        </is>
+      </c>
+      <c r="K100">
+        <v>50</v>
+      </c>
+      <c r="L100">
+        <v>381.355</v>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>LIMA CALLAO</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>MARIA DEL CARMEN CHERRE ESPEJO</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>METRONIC</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C101">
+        <v>3624</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>08/03/2022</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>10099217192</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>DE LOS SANTOS SUAREZ LUIS ENRIQUE</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>REFRESKAN - T PLUS 0.5% SOL OFT EST x 15ml</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>REFRESKAN - T PLUS 0.5% SOL OFT EST x 15ml</t>
+        </is>
+      </c>
+      <c r="K101">
+        <v>50</v>
+      </c>
+      <c r="L101">
+        <v>381.355</v>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>METRONIC</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C102">
+        <v>3631</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>09/03/2022</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>20603536593</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>CENTRO OFTALMOLÓGICO NOBA VISIÓN E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>REFRESKAN - T PLUS 0.5% SOL OFT EST x 15ml</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>REFRESKAN - T PLUS 0.5% SOL OFT EST x 15ml</t>
+        </is>
+      </c>
+      <c r="K102">
+        <v>20</v>
+      </c>
+      <c r="L102">
+        <v>469.83</v>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>NORTE GRANDE A</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>GUSTAVO MASIAS SIANCAS</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>METRONIC</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C103">
+        <v>3624</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>08/03/2022</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>10099217192</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>DE LOS SANTOS SUAREZ LUIS ENRIQUE</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>S-10  10% SOL OFT EST x 15ml</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>S-10  10% SOL OFT EST x 15ml</t>
+        </is>
+      </c>
+      <c r="K103">
+        <v>100</v>
+      </c>
+      <c r="L103">
+        <v>677.96</v>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>COMUN</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>METRONIC</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C104">
+        <v>3590</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>02/03/2022</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>10167979225</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>PARRAGUEZ GONZALES FERNANDO EUGENIO</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>SYSTALAN EN OCUVIAL SOL.OFT.EST x 0.4ml</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>SYSTALAN EN OCUVIAL SOL.OFT.EST x 0.4ml</t>
+        </is>
+      </c>
+      <c r="K104">
+        <v>15</v>
+      </c>
+      <c r="L104">
+        <v>762.711</v>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>NORTE GRANDE B</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>LUDEÑA MESA YURI ROBERTO</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>METRONIC</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C105">
+        <v>3585</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>02/03/2022</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>20605592989</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>OFTAVISION SOCIEDAD ANONIMA CERRADA</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>SYSTALAN EN OCUVIAL SOL.OFT.EST x 0.4ml</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>SYSTALAN EN OCUVIAL SOL.OFT.EST x 0.4ml</t>
+        </is>
+      </c>
+      <c r="K105">
+        <v>5</v>
+      </c>
+      <c r="L105">
+        <v>254.237</v>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>LIMA NORTE</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>ISABEL SEMINARIO GARCIA</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>METRONIC</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C106">
+        <v>3606</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>04/03/2022</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>20603126603</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>OFTALNOVA E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>SYSTALAN SOL OFT EST x 15ml</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>SYSTALAN SOL OFT EST x 15ml</t>
+        </is>
+      </c>
+      <c r="K106">
+        <v>20</v>
+      </c>
+      <c r="L106">
+        <v>622.88</v>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>SUR GRANDE</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>ROBERTO JIMENEZ OSORIO</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>METRONIC</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C107">
+        <v>3585</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>02/03/2022</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>20605592989</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>OFTAVISION SOCIEDAD ANONIMA CERRADA</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>SYSTALAN  ULTRA SOL. OFT. X 10ML</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>SYSTALAN  ULTRA SOL. OFT. X 10ML</t>
+        </is>
+      </c>
+      <c r="K107">
+        <v>15</v>
+      </c>
+      <c r="L107">
+        <v>467.16</v>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>LIMA NORTE</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>ISABEL SEMINARIO GARCIA</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>METRONIC</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C108">
+        <v>3604</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>04/03/2022</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>20525179401</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>SOCIAL MEDICAL S.A.C.</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>TERRACORSOL UNG OFT/OTICO EST x 3.5g</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>TERRACORSOL UNG OFT/OTICO EST x 3.5g</t>
+        </is>
+      </c>
+      <c r="K108">
+        <v>6</v>
+      </c>
+      <c r="L108">
+        <v>78.3048</v>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>LIMA CALLAO</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>ERIKA JESUS MORENO MEZA</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>ROJO</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>METRONIC</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C109">
+        <v>3583</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>20601969051</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>VISION MONTECRISTO S.R.L.</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>TERRACORSOL UNG OFT/OTICO EST x 3.5g</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>TERRACORSOL UNG OFT/OTICO EST x 3.5g</t>
+        </is>
+      </c>
+      <c r="K109">
+        <v>9</v>
+      </c>
+      <c r="L109">
+        <v>99</v>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>LIMA ESTE</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>ROJO</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>METRONIC</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C110">
+        <v>3627</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>09/03/2022</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>10158518126</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>ESPINOZA OSTOS MEIDA ANAMITH</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>TERRACORSOL UNG OFT/OTICO EST x 3.5g</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>TERRACORSOL UNG OFT/OTICO EST x 3.5g</t>
+        </is>
+      </c>
+      <c r="K110">
+        <v>20</v>
+      </c>
+      <c r="L110">
+        <v>220</v>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>LIMA ESTE</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>ROJO</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>METRONIC</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C111">
+        <v>3583</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>20601969051</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>VISION MONTECRISTO S.R.L.</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>TERRAMISOL - A UNG OFT EST x 6g</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>TERRAMISOL - A UNG OFT EST x 6g</t>
+        </is>
+      </c>
+      <c r="K111">
+        <v>9</v>
+      </c>
+      <c r="L111">
+        <v>106.6266</v>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>LIMA ESTE</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>COMUN</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>METRONIC</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C112">
+        <v>54</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>10/03/2022</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>20517943038</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>OFTALASER SOCIEDAD COMERCIAL DE RESPONSABILIDAD LI</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>TEXTO</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>TEXTO</t>
+        </is>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>LIMA ESTE</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>METRONIC</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C113">
+        <v>3631</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>09/03/2022</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>20603536593</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>CENTRO OFTALMOLÓGICO NOBA VISIÓN E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>TIMOX  SOL OFT EST x 5ml</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>TIMOX  SOL OFT EST X 5ML</t>
+        </is>
+      </c>
+      <c r="K113">
+        <v>15</v>
+      </c>
+      <c r="L113">
+        <v>250.296</v>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>NORTE GRANDE A</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>GUSTAVO MASIAS SIANCAS</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>ROJO</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>METRONIC</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C114">
+        <v>2879</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>10643881</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>IZASIGA PAJUELO BILBERTO</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>BV</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>TIMOX  SOL OFT EST x 5ml</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>TIMOX  SOL OFT EST X 5ML</t>
+        </is>
+      </c>
+      <c r="K114">
+        <v>2</v>
+      </c>
+      <c r="L114">
+        <v>28</v>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>LIMA ESTE</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>GILBERTO IZASIGA PAJUELO</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>ROJO</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>METRONIC</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C115">
+        <v>3619</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>07/03/2022</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>10240019731</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>FUENTES VEGA JOSE ANTONIO</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>TIMOX  SOL OFT EST x 5ml</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>TIMOX  SOL OFT EST X 5ML</t>
+        </is>
+      </c>
+      <c r="K115">
+        <v>10</v>
+      </c>
+      <c r="L115">
+        <v>144.745</v>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>SUR ORIENTE</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>PATRICIA LAZARTE</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>ROJO</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>METRONIC</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C116">
+        <v>3623</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>08/03/2022</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>15253696025</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>GUTIERREZ UMPIRE BRUNO EMILIO</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>TOBRAZOL DX SUSP OFT EST x 5ml</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>TOBRAZOL DX SUSP OFT EST x 5ml</t>
+        </is>
+      </c>
+      <c r="K116">
+        <v>20</v>
+      </c>
+      <c r="L116">
+        <v>462.71</v>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>SUR ORIENTE</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>PATRICIA LAZARTE</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>ROJO</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>METRONIC</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C117">
+        <v>3615</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>07/03/2022</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>20604725381</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>OFTALMORETINA S.A.C.</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>TOBRAZOL DX SUSP OFT EST x 5ml</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>TOBRAZOL DX SUSP OFT EST x 5ml</t>
+        </is>
+      </c>
+      <c r="K117">
+        <v>12</v>
+      </c>
+      <c r="L117">
+        <v>292.5756</v>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>LIMA ESTE</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>ROJO</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>METRONIC</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C118">
+        <v>3641</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>10/03/2022</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>20480232829</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>CLINICA DE OJOS OPHTO SALUD SRL</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>TOBRAZOL DX UNGÜENTO X 3.5 GRS</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>TOBRAZOL DX UNGÜENTO X 3.5 GRS</t>
+        </is>
+      </c>
+      <c r="K118">
+        <v>30</v>
+      </c>
+      <c r="L118">
+        <v>889.83</v>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>NORTE GRANDE B</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>LUDEÑA MESA YURI ROBERTO</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>ROJO</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>METRONIC</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C119">
+        <v>3601</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>04/03/2022</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>20563762838</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>CENTRO MEDICO MENDOZA E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>TOBRAZOL DX UNGÜENTO X 3.5 GRS</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>TOBRAZOL DX UNGÜENTO X 3.5 GRS</t>
+        </is>
+      </c>
+      <c r="K119">
+        <v>25</v>
+      </c>
+      <c r="L119">
+        <v>741.525</v>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>ROJO</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>METRONIC</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C120">
+        <v>3586</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>02/03/2022</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>20604204381</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>CENTRO DE ESPECIALIDADES MEDICAS DEL NORTE NEOSALU</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>TOBRAZOL DX UNGÜENTO X 3.5 GRS</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>TOBRAZOL DX UNGÜENTO X 3.5 GRS</t>
+        </is>
+      </c>
+      <c r="K120">
+        <v>12</v>
+      </c>
+      <c r="L120">
+        <v>355.932</v>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>NORTE GRANDE B</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>LUDEÑA MESA YURI ROBERTO</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>ROJO</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>METRONIC</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C121">
+        <v>3587</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>02/03/2022</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>20559876373</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>MEDICINA GLOBAL TRUJILLO S.A.C</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>TROPICAMIDA 1% SOL OFT EST x 15ml</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>TROPICAMIDA 1% SOL OFT EST x 15ml</t>
+        </is>
+      </c>
+      <c r="K121">
+        <v>12</v>
+      </c>
+      <c r="L121">
+        <v>284.9484</v>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>NORTE MEDIO</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>CARLOS CUADRA PINILLOS</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>COMUN</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>METRONIC</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C122">
+        <v>3611</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>07/03/2022</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>20605280952</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>APTIVA SERVICIOS OFTALMOLOGICOS E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>TROPICAMIDA 1% SOL OFT EST x 15ml</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>TROPICAMIDA 1% SOL OFT EST x 15ml</t>
+        </is>
+      </c>
+      <c r="K122">
+        <v>15</v>
+      </c>
+      <c r="L122">
+        <v>356.1855</v>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>NORTE GRANDE B</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>LUDEÑA MESA YURI ROBERTO</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>COMUN</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>METRONIC</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C123">
+        <v>3584</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>20517984656</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>SOCIEDAD MEDICA OFTALMYCA SRL</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>TROPICAMIDA 1% SOL OFT EST x 15ml</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>TROPICAMIDA 1% SOL OFT EST x 15ml</t>
+        </is>
+      </c>
+      <c r="K123">
+        <v>12</v>
+      </c>
+      <c r="L123">
+        <v>299.1864</v>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>COMUN</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>METRONIC</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C124">
+        <v>3622</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>08/03/2022</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>20603066988</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>RETINA VISION E.I.R.L</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>TROPICAMIDA 1% SOL OFT EST x 15ml</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>TROPICAMIDA 1% SOL OFT EST x 15ml</t>
+        </is>
+      </c>
+      <c r="K124">
+        <v>12</v>
+      </c>
+      <c r="L124">
+        <v>284.9484</v>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>NORTE GRANDE B</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>LUDEÑA MESA YURI ROBERTO</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>COMUN</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>METRONIC</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C125">
+        <v>3627</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>09/03/2022</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>10158518126</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>ESPINOZA OSTOS MEIDA ANAMITH</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>TROPICAMIDA 1% SOL OFT EST x 15ml</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>TROPICAMIDA 1% SOL OFT EST x 15ml</t>
+        </is>
+      </c>
+      <c r="K125">
+        <v>6</v>
+      </c>
+      <c r="L125">
+        <v>149.5932</v>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>LIMA ESTE</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>COMUN</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>METRONIC</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C126">
+        <v>3628</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>09/03/2022</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>10421287347</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>MISAICO QUISPE HERNAN</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>TRUSOMIDA 2% SOL OFT EST x 5ml</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>TRUSOMIDA 2% SOL OFT EST x 5ml</t>
+        </is>
+      </c>
+      <c r="K126">
+        <v>4</v>
+      </c>
+      <c r="L126">
+        <v>141.6948</v>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>ROJO</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>METRONIC</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C127">
+        <v>3625</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>08/03/2022</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>20601969051</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>VISION MONTECRISTO S.R.L.</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>VISTAGEL GEL OFT EST x 12g</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>VISTAGEL GEL OFT EST x 12g</t>
+        </is>
+      </c>
+      <c r="K127">
+        <v>5</v>
+      </c>
+      <c r="L127">
+        <v>134.322</v>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>LIMA ESTE</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>METRONIC</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C128">
+        <v>3594</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>02/03/2022</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>20453914772</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>ASOCIACION PRO ESPIRITU SANTO</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>VISTAGEL GEL OFT EST x 12g</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>VISTAGEL GEL OFT EST x 12g</t>
+        </is>
+      </c>
+      <c r="K128">
+        <v>2</v>
+      </c>
+      <c r="L128">
+        <v>53.7288</v>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>LIMA ESTE</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>METRONIC</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C129">
+        <v>3641</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>10/03/2022</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>20480232829</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>CLINICA DE OJOS OPHTO SALUD SRL</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>XENDA Soft.Oft. X 3 ML</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>XENDA Soft.Oft. X 3 ML</t>
+        </is>
+      </c>
+      <c r="K129">
+        <v>20</v>
+      </c>
+      <c r="L129">
+        <v>932.202</v>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>NORTE GRANDE B</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>LUDEÑA MESA YURI ROBERTO</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>ROJO</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>METRONIC</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C130">
+        <v>3631</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>09/03/2022</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>20603536593</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>CENTRO OFTALMOLÓGICO NOBA VISIÓN E.I.R.L.</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>XENDA Soft.Oft. X 3 ML</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>XENDA Soft.Oft. X 3 ML</t>
+        </is>
+      </c>
+      <c r="K130">
+        <v>15</v>
+      </c>
+      <c r="L130">
+        <v>635.592</v>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>NORTE GRANDE A</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>GUSTAVO MASIAS SIANCAS</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>ROJO</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>METRONIC</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C131">
         <v>77</v>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="D131" t="inlineStr">
         <is>
           <t>03/03/2022</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>20601483701</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>DERMATOLOGICA PERU E.I.R.L.</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="H131" t="inlineStr">
         <is>
           <t>NC</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr">
+      <c r="I131" t="inlineStr">
         <is>
           <t>XENDA Soft.Oft. X 3 ML</t>
         </is>
       </c>
-      <c r="J93" t="inlineStr">
+      <c r="J131" t="inlineStr">
         <is>
           <t>XENDA Soft.Oft. X 3 ML</t>
         </is>
       </c>
-      <c r="K93">
+      <c r="K131">
         <v>0</v>
       </c>
-      <c r="L93">
+      <c r="L131">
         <v>-457.6266</v>
       </c>
-      <c r="N93" t="inlineStr">
+      <c r="N131" t="inlineStr">
         <is>
           <t>LIMA CALLAO</t>
         </is>
       </c>
-      <c r="O93" t="inlineStr">
+      <c r="O131" t="inlineStr">
         <is>
           <t>OSCAR NICOLA SHIMAZAKI ZAGAL</t>
         </is>
       </c>
-      <c r="P93" t="inlineStr">
+      <c r="P131" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="Q93" t="inlineStr">
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>ROJO</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>METRONIC</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="C132">
+        <v>3614</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>07/03/2022</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>20513961112</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>SOLUCIONES E INVERSIONES EN SALUD SOCIEDAD ANONIMA</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>XENDA Soft.Oft. X 3 ML</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>XENDA Soft.Oft. X 3 ML</t>
+        </is>
+      </c>
+      <c r="K132">
+        <v>20</v>
+      </c>
+      <c r="L132">
+        <v>1016.948</v>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>LIMA ESTE</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>GISELLA MILUSKA OLIVEROS ZARAG</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="Q132" t="inlineStr">
         <is>
           <t>ROJO</t>
         </is>
